--- a/dokumentation/arbeitszeiten/Arbeitszeiten_baa36762.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_baa36762.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dominik/Documents/Schule/Hochschule/IT7/DT/git/DT_WS1718_02_StarCar/Dokumentation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16800" tabRatio="933"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="933"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="13" r:id="rId1"/>
@@ -18,20 +13,12 @@
     <sheet name="Dezember 2017" sheetId="8" r:id="rId4"/>
     <sheet name="Januar 2018" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Tag</t>
   </si>
@@ -106,6 +93,51 @@
   </si>
   <si>
     <t>Annkathrin Bauer</t>
+  </si>
+  <si>
+    <t>dokumentation</t>
+  </si>
+  <si>
+    <t>testen + dokumentation</t>
+  </si>
+  <si>
+    <t>fix kompass</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>komunikation</t>
+  </si>
+  <si>
+    <t>recherche</t>
+  </si>
+  <si>
+    <t>kompass implementierung</t>
+  </si>
+  <si>
+    <t>recherche debuggen</t>
+  </si>
+  <si>
+    <t>beschleunigungssensor</t>
+  </si>
+  <si>
+    <t>debuggen</t>
+  </si>
+  <si>
+    <t>testen debuggen</t>
+  </si>
+  <si>
+    <t>bug fix</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>protokoll einbinden</t>
+  </si>
+  <si>
+    <t>frames erstellen</t>
   </si>
 </sst>
 </file>
@@ -456,7 +488,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -530,122 +562,129 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="229">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -760,9 +799,269 @@
     <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -985,6 +1284,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1230,6 +1539,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1568,17 +1887,17 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +1905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1596,15 +1915,15 @@
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
@@ -1615,92 +1934,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>43009</v>
       </c>
-      <c r="B7" s="2">
-        <f>'Oktober 2017'!G34</f>
-        <v>1.5</v>
+      <c r="B7" s="57">
+        <v>20.48</v>
       </c>
       <c r="C7">
         <f>'Oktober 2017'!C33</f>
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>43040</v>
       </c>
-      <c r="B8" s="2">
-        <f>'November 2017'!G34</f>
-        <v>0</v>
+      <c r="B8" s="57">
+        <v>29.85</v>
       </c>
       <c r="C8">
         <f>'November 2017'!C33</f>
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43070</v>
       </c>
-      <c r="B9" s="2">
-        <f>'Dezember 2017'!G34</f>
-        <v>0</v>
+      <c r="B9" s="57">
+        <v>27.25</v>
       </c>
       <c r="C9">
         <f>'Dezember 2017'!C33</f>
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>43101</v>
       </c>
-      <c r="B10" s="2">
-        <f>'Januar 2018'!G34</f>
-        <v>0</v>
+      <c r="B10" s="57">
+        <v>32.72</v>
       </c>
       <c r="C10" s="3">
         <f>'Januar 2018'!C33</f>
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <f>SUM(B7:B9)</f>
-        <v>1.5</v>
+        <f>SUM(B7:B10)</f>
+        <v>110.3</v>
       </c>
       <c r="C12">
         <f>SUM(C7:C10)</f>
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1716,24 +2031,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1759,7 +2074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>DATE(2017,10,1)</f>
         <v>43009</v>
@@ -1781,7 +2096,7 @@
       </c>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>A2+1</f>
         <v>43010</v>
@@ -1802,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f t="shared" ref="A4:A32" si="3">A3+1</f>
         <v>43011</v>
@@ -1823,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f t="shared" si="3"/>
         <v>43012</v>
@@ -1844,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f t="shared" si="3"/>
         <v>43013</v>
@@ -1864,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <f t="shared" si="3"/>
         <v>43014</v>
@@ -1878,23 +2193,21 @@
         <v>41</v>
       </c>
       <c r="D7" s="43">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7" s="43">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E7" s="43">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F7" s="43">
-        <v>0</v>
-      </c>
+      <c r="F7" s="43"/>
       <c r="G7" s="44">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2.2499999999999987</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="3"/>
         <v>43015</v>
@@ -1916,7 +2229,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>43016</v>
@@ -1938,7 +2251,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="3"/>
         <v>43017</v>
@@ -1959,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="3"/>
         <v>43018</v>
@@ -1980,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="3"/>
         <v>43019</v>
@@ -2001,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="3"/>
         <v>43020</v>
@@ -2022,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <f t="shared" si="3"/>
         <v>43021</v>
@@ -2035,14 +2348,25 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="56">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="56">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999929</v>
+      </c>
+      <c r="H14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="3"/>
         <v>43022</v>
@@ -2064,7 +2388,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="3"/>
         <v>43023</v>
@@ -2086,7 +2410,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="3"/>
         <v>43024</v>
@@ -2108,7 +2432,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="3"/>
         <v>43025</v>
@@ -2129,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="3"/>
         <v>43026</v>
@@ -2150,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="3"/>
         <v>43027</v>
@@ -2171,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <f t="shared" si="3"/>
         <v>43028</v>
@@ -2184,14 +2508,25 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="54">
+        <v>0.34375</v>
+      </c>
+      <c r="E21" s="54">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="57">
+        <f t="shared" si="2"/>
+        <v>4.2500000000000009</v>
+      </c>
+      <c r="H21" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="3"/>
         <v>43029</v>
@@ -2213,7 +2548,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="3"/>
         <v>43030</v>
@@ -2235,7 +2570,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="3"/>
         <v>43031</v>
@@ -2256,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="3"/>
         <v>43032</v>
@@ -2277,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="3"/>
         <v>43033</v>
@@ -2298,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="3"/>
         <v>43034</v>
@@ -2319,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="3"/>
         <v>43035</v>
@@ -2332,15 +2667,22 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="3"/>
         <v>43036</v>
@@ -2362,7 +2704,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="3"/>
         <v>43037</v>
@@ -2384,7 +2726,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="3"/>
         <v>43038</v>
@@ -2397,15 +2739,22 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.625</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.7333333333333325</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <f t="shared" si="3"/>
         <v>43039</v>
@@ -2427,7 +2776,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>7</v>
       </c>
@@ -2438,7 +2787,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>11</v>
       </c>
@@ -2449,81 +2798,91 @@
       <c r="F34" s="19"/>
       <c r="G34" s="20">
         <f>SUM(G2:G32)</f>
-        <v>1.5</v>
+        <v>20.483333333333327</v>
       </c>
       <c r="H34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D14:G14"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="46" priority="22" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="73" priority="24" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G13 A22:G32 A21:D21 A15:G20 A14:D14">
-    <cfRule type="expression" dxfId="45" priority="21">
+  <conditionalFormatting sqref="A2:G13 A22:G32 A21:D21 A15:G20 G21 G14 A14:E14">
+    <cfRule type="expression" dxfId="72" priority="23">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="71" priority="13">
       <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="43" priority="10">
+    <cfRule type="expression" dxfId="70" priority="12">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="69" priority="11">
       <formula>WEEKDAY($A9,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="41" priority="8">
+    <cfRule type="expression" dxfId="68" priority="10">
       <formula>WEEKDAY($A15,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="67" priority="9">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="66" priority="8">
       <formula>WEEKDAY($A16,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="38" priority="5">
+    <cfRule type="expression" dxfId="65" priority="7">
       <formula>WEEKDAY($A22,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="64" priority="6">
       <formula>WEEKDAY($A23,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="63" priority="5">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>WEEKDAY($A30,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>WEEKDAY($A21,2) &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>WEEKDAY($A14,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.16" header="0" footer="0"/>
@@ -2533,24 +2892,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2576,7 +2935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <f>DATE(2017,11,1)</f>
         <v>43040</v>
@@ -2597,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f>A2+1</f>
         <v>43041</v>
@@ -2618,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A31" si="3">A3+1</f>
         <v>43042</v>
@@ -2631,15 +2990,22 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" si="3"/>
         <v>43043</v>
@@ -2661,7 +3027,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="3"/>
         <v>43044</v>
@@ -2683,7 +3049,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="3"/>
         <v>43045</v>
@@ -2704,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="3"/>
         <v>43046</v>
@@ -2725,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>43047</v>
@@ -2746,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="3"/>
         <v>43048</v>
@@ -2767,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="3"/>
         <v>43049</v>
@@ -2780,15 +3146,22 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5666666666666682</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="3"/>
         <v>43050</v>
@@ -2810,7 +3183,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="3"/>
         <v>43051</v>
@@ -2832,7 +3205,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="3"/>
         <v>43052</v>
@@ -2853,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="3"/>
         <v>43053</v>
@@ -2874,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="3"/>
         <v>43054</v>
@@ -2895,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="3"/>
         <v>43055</v>
@@ -2908,15 +3281,22 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.86041666666666661</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.883333333333332</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <f t="shared" si="3"/>
         <v>43056</v>
@@ -2929,14 +3309,25 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="56">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="E18" s="56">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="57">
+        <f t="shared" si="2"/>
+        <v>3.8833333333333329</v>
+      </c>
+      <c r="H18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="3"/>
         <v>43057</v>
@@ -2958,7 +3349,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="3"/>
         <v>43058</v>
@@ -2980,7 +3371,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="3"/>
         <v>43059</v>
@@ -3001,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="3"/>
         <v>43060</v>
@@ -3022,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="3"/>
         <v>43061</v>
@@ -3035,15 +3426,22 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.71597222222222223</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.6833333333333336</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="3"/>
         <v>43062</v>
@@ -3064,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="3"/>
         <v>43063</v>
@@ -3077,15 +3475,22 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.51388888888888895</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.3333333333333357</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="3"/>
         <v>43064</v>
@@ -3107,7 +3512,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="3"/>
         <v>43065</v>
@@ -3129,7 +3534,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="3"/>
         <v>43066</v>
@@ -3142,15 +3547,22 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6666666666666661</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="3"/>
         <v>43067</v>
@@ -3163,15 +3575,22 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6666666666666661</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="3"/>
         <v>43068</v>
@@ -3184,15 +3603,22 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="3"/>
         <v>43069</v>
@@ -3213,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="15"/>
@@ -3223,7 +3649,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>7</v>
       </c>
@@ -3234,7 +3660,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>11</v>
       </c>
@@ -3245,7 +3671,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="20">
         <f>SUM(G2:G32)</f>
-        <v>0</v>
+        <v>29.85</v>
       </c>
       <c r="H34" s="20"/>
     </row>
@@ -3253,62 +3679,67 @@
   <mergeCells count="3">
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="33" priority="21" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="60" priority="22" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G17 A19:G32 A18:D18">
-    <cfRule type="expression" dxfId="32" priority="20">
+  <conditionalFormatting sqref="A2:G17 A19:G32 A18:E18 G18">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="58" priority="11">
       <formula>WEEKDAY($A5,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="57" priority="10">
       <formula>WEEKDAY($A6,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="56" priority="9">
       <formula>WEEKDAY($A12,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="55" priority="8">
       <formula>WEEKDAY($A13,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="54" priority="7">
       <formula>WEEKDAY($A19,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>WEEKDAY($A20,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>WEEKDAY($A26,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="51" priority="4">
       <formula>WEEKDAY($A27,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>WEEKDAY($A18,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.16" header="0" footer="0"/>
@@ -3318,24 +3749,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3793,7 @@
       </c>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <f>DATE(2017,12,1)</f>
         <v>43070</v>
@@ -3375,15 +3806,22 @@
         <f>WEEKNUM(A2,2)</f>
         <v>49</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2">
         <f>(E2-D2-F2)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f>A2+1</f>
         <v>43071</v>
@@ -3405,7 +3843,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A32" si="3">A3+1</f>
         <v>43072</v>
@@ -3427,7 +3865,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" si="3"/>
         <v>43073</v>
@@ -3440,15 +3878,22 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.6666666666666661</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="3"/>
         <v>43074</v>
@@ -3461,15 +3906,22 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.6958333333333333</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="3"/>
         <v>43075</v>
@@ -3482,15 +3934,22 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.3333333333333304</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="3"/>
         <v>43076</v>
@@ -3511,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>43077</v>
@@ -3524,15 +3983,22 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.50902777777777775</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.133333333333332</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="3"/>
         <v>43078</v>
@@ -3554,7 +4020,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="3"/>
         <v>43079</v>
@@ -3576,7 +4042,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="3"/>
         <v>43080</v>
@@ -3597,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="3"/>
         <v>43081</v>
@@ -3618,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="3"/>
         <v>43082</v>
@@ -3639,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="3"/>
         <v>43083</v>
@@ -3652,15 +4118,22 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.99652777777777779</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.9166666666666679</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <f t="shared" si="3"/>
         <v>43084</v>
@@ -3673,14 +4146,28 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="56">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="57">
+        <f t="shared" si="2"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="3"/>
         <v>43085</v>
@@ -3702,7 +4189,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="3"/>
         <v>43086</v>
@@ -3724,7 +4211,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="3"/>
         <v>43087</v>
@@ -3745,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="3"/>
         <v>43088</v>
@@ -3766,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="3"/>
         <v>43089</v>
@@ -3787,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="3"/>
         <v>43090</v>
@@ -3808,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="3"/>
         <v>43091</v>
@@ -3829,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="3"/>
         <v>43092</v>
@@ -3851,7 +4338,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="3"/>
         <v>43093</v>
@@ -3873,7 +4360,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="3"/>
         <v>43094</v>
@@ -3894,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="3"/>
         <v>43095</v>
@@ -3915,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="3"/>
         <v>43096</v>
@@ -3936,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="3"/>
         <v>43097</v>
@@ -3957,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="3"/>
         <v>43098</v>
@@ -3978,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="3"/>
         <v>43099</v>
@@ -4000,7 +4487,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <f t="shared" si="3"/>
         <v>43100</v>
@@ -4022,7 +4509,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>7</v>
       </c>
@@ -4033,7 +4520,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4531,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="20">
         <f>SUM(G2:G32)</f>
-        <v>0</v>
+        <v>27.25</v>
       </c>
       <c r="H34" s="20"/>
     </row>
@@ -4052,94 +4539,99 @@
   <mergeCells count="3">
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="22" priority="23" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="49" priority="24" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G15 A17:G32 A16:D16">
-    <cfRule type="expression" dxfId="21" priority="22">
+  <conditionalFormatting sqref="A2:G15 A17:G32 A16:E16 G16">
+    <cfRule type="expression" dxfId="48" priority="23">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula>WEEKDAY($A25,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="46" priority="12">
       <formula>WEEKDAY($A31,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="45" priority="10">
       <formula>WEEKDAY($A24,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>WEEKDAY($A18,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="42" priority="7">
       <formula>WEEKDAY($A11,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>WEEKDAY($A10,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>WEEKDAY($A4,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>WEEKDAY($A3,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="37" priority="1">
+      <formula>WEEKDAY($A16,2) &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.16" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A15" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -4166,7 +4658,7 @@
       </c>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <f>DATE(2018,1,1)</f>
         <v>43101</v>
@@ -4186,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f>A2+1</f>
         <v>43102</v>
@@ -4207,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A32" si="3">A3+1</f>
         <v>43103</v>
@@ -4228,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" si="3"/>
         <v>43104</v>
@@ -4249,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="3"/>
         <v>43105</v>
@@ -4262,15 +4754,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.6666666666666643</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="3"/>
         <v>43106</v>
@@ -4292,7 +4791,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="3"/>
         <v>43107</v>
@@ -4314,7 +4813,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="3"/>
         <v>43108</v>
@@ -4335,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="3"/>
         <v>43109</v>
@@ -4348,15 +4847,22 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.54236111111111118</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.0166666666666693</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="3"/>
         <v>43110</v>
@@ -4377,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="3"/>
         <v>43111</v>
@@ -4390,15 +4896,22 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.87916666666666676</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <f t="shared" si="3"/>
         <v>43112</v>
@@ -4411,14 +4924,25 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="58">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.5625</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="59">
+        <f t="shared" si="2"/>
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="H13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="3"/>
         <v>43113</v>
@@ -4440,7 +4964,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="3"/>
         <v>43114</v>
@@ -4462,7 +4986,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="3"/>
         <v>43115</v>
@@ -4483,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="3"/>
         <v>43116</v>
@@ -4496,15 +5020,22 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="3"/>
         <v>43117</v>
@@ -4525,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="3"/>
         <v>43118</v>
@@ -4538,15 +5069,22 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.61736111111111114</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3.0666666666666678</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <f t="shared" si="3"/>
         <v>43119</v>
@@ -4559,14 +5097,25 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="58">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E20" s="58">
+        <v>0.5625</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="59">
+        <f t="shared" si="2"/>
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="H20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="3"/>
         <v>43120</v>
@@ -4579,16 +5128,22 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="6">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.77569444444444446</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="3"/>
         <v>43121</v>
@@ -4601,16 +5156,22 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.46875</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.25</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="3"/>
         <v>43122</v>
@@ -4623,15 +5184,22 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="3"/>
         <v>43123</v>
@@ -4652,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="3"/>
         <v>43124</v>
@@ -4673,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="3"/>
         <v>43125</v>
@@ -4694,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="3"/>
         <v>43126</v>
@@ -4715,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="3"/>
         <v>43127</v>
@@ -4737,7 +5305,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="3"/>
         <v>43128</v>
@@ -4759,7 +5327,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="3"/>
         <v>43129</v>
@@ -4780,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="3"/>
         <v>43130</v>
@@ -4801,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <f t="shared" si="3"/>
         <v>43131</v>
@@ -4823,7 +5391,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>7</v>
       </c>
@@ -4834,7 +5402,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>11</v>
       </c>
@@ -4845,71 +5413,81 @@
       <c r="F34" s="19"/>
       <c r="G34" s="20">
         <f>SUM(G2:G32)</f>
-        <v>0</v>
+        <v>32.716666666666669</v>
       </c>
       <c r="H34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D13:G13"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B2:C32">
-    <cfRule type="timePeriod" dxfId="10" priority="13" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="36" priority="15" timePeriod="yesterday">
       <formula>FLOOR(B2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G12 A21:G32 A20:D20 A14:G19 A13:D13">
-    <cfRule type="expression" dxfId="9" priority="12">
+  <conditionalFormatting sqref="A2:G12 A21:G32 A14:G19 A20:E20 G20 A13:E13 G13">
+    <cfRule type="expression" dxfId="35" priority="14">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="32" priority="10">
       <formula>WEEKDAY($A14,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>WEEKDAY($A15,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>WEEKDAY($A21,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>WEEKDAY($A22,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>WEEKDAY($A28,2) &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>WEEKDAY($A20,2) &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>WEEKDAY($A13,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.16" header="0" footer="0"/>
